--- a/COVID-19/Data/dailyexcels/19-Jul-2020.xlsx
+++ b/COVID-19/Data/dailyexcels/19-Jul-2020.xlsx
@@ -43,7 +43,7 @@
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>last 24 Hrs</t>
+      <t>Last 24 Hrs</t>
     </r>
   </si>
   <si>
@@ -598,20 +598,20 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.234375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="9.5859375" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.52734375" customWidth="1"/>
-    <col min="6" max="6" width="9.29296875" customWidth="1"/>
+    <col min="1" max="1" width="19.5859375" customWidth="1"/>
+    <col min="2" max="2" width="16.64453125" customWidth="1"/>
+    <col min="3" max="3" width="12.234375" customWidth="1"/>
+    <col min="4" max="4" width="12.76171875" customWidth="1"/>
+    <col min="5" max="5" width="13.46875" customWidth="1"/>
+    <col min="6" max="6" width="11.76171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="44" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="29.35" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,19 +636,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>220</v>
+        <v>637</v>
       </c>
       <c r="C2" s="2">
-        <v>4504</v>
+        <v>5141</v>
       </c>
       <c r="D2" s="2">
-        <v>1823</v>
+        <v>2341</v>
       </c>
       <c r="E2" s="2">
-        <v>2616</v>
+        <v>2732</v>
       </c>
       <c r="F2" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
@@ -656,19 +656,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>343</v>
+        <v>440</v>
       </c>
       <c r="C3" s="2">
-        <v>4207</v>
+        <v>4647</v>
       </c>
       <c r="D3" s="2">
-        <v>2750</v>
+        <v>3139</v>
       </c>
       <c r="E3" s="2">
-        <v>1413</v>
+        <v>1462</v>
       </c>
       <c r="F3" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
@@ -676,19 +676,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>994</v>
+        <v>647</v>
       </c>
       <c r="C4" s="2">
-        <v>5499</v>
+        <v>6146</v>
       </c>
       <c r="D4" s="2">
-        <v>4202</v>
+        <v>4819</v>
       </c>
       <c r="E4" s="2">
-        <v>1251</v>
+        <v>1271</v>
       </c>
       <c r="F4" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
@@ -696,19 +696,19 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>214</v>
+        <v>354</v>
       </c>
       <c r="C5" s="2">
-        <v>4544</v>
+        <v>4898</v>
       </c>
       <c r="D5" s="2">
-        <v>2112</v>
+        <v>2279</v>
       </c>
       <c r="E5" s="2">
-        <v>2385</v>
+        <v>2570</v>
       </c>
       <c r="F5" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
@@ -716,19 +716,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="C6" s="2">
-        <v>2420</v>
+        <v>2646</v>
       </c>
       <c r="D6" s="2">
-        <v>1082</v>
+        <v>1246</v>
       </c>
       <c r="E6" s="2">
-        <v>1316</v>
+        <v>1375</v>
       </c>
       <c r="F6" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
@@ -736,19 +736,19 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>130</v>
+        <v>397</v>
       </c>
       <c r="C7" s="2">
-        <v>3151</v>
+        <v>3548</v>
       </c>
       <c r="D7" s="2">
-        <v>910</v>
+        <v>1240</v>
       </c>
       <c r="E7" s="2">
-        <v>2147</v>
+        <v>2207</v>
       </c>
       <c r="F7" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
@@ -756,19 +756,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>550</v>
+        <v>364</v>
       </c>
       <c r="C8" s="2">
-        <v>5681</v>
+        <v>6045</v>
       </c>
       <c r="D8" s="2">
-        <v>3138</v>
+        <v>3319</v>
       </c>
       <c r="E8" s="2">
-        <v>2427</v>
+        <v>2603</v>
       </c>
       <c r="F8" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
@@ -776,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>278</v>
+        <v>391</v>
       </c>
       <c r="C9" s="2">
-        <v>1995</v>
+        <v>2386</v>
       </c>
       <c r="D9" s="2">
-        <v>1186</v>
+        <v>1563</v>
       </c>
       <c r="E9" s="2">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="F9" s="2">
         <v>21</v>
@@ -796,19 +796,19 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>266</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2">
-        <v>1714</v>
+        <v>1864</v>
       </c>
       <c r="D10" s="2">
-        <v>579</v>
+        <v>671</v>
       </c>
       <c r="E10" s="2">
-        <v>1105</v>
+        <v>1159</v>
       </c>
       <c r="F10" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
@@ -816,19 +816,19 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>182</v>
+        <v>535</v>
       </c>
       <c r="C11" s="2">
-        <v>2034</v>
+        <v>2569</v>
       </c>
       <c r="D11" s="2">
-        <v>1261</v>
+        <v>1599</v>
       </c>
       <c r="E11" s="2">
-        <v>757</v>
+        <v>946</v>
       </c>
       <c r="F11" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
@@ -836,19 +836,19 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>116</v>
+        <v>266</v>
       </c>
       <c r="C12" s="2">
-        <v>1832</v>
+        <v>2098</v>
       </c>
       <c r="D12" s="2">
-        <v>518</v>
+        <v>678</v>
       </c>
       <c r="E12" s="2">
-        <v>1284</v>
+        <v>1383</v>
       </c>
       <c r="F12" s="2">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
@@ -856,19 +856,19 @@
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>118</v>
+        <v>241</v>
       </c>
       <c r="C13" s="2">
-        <v>1189</v>
+        <v>1430</v>
       </c>
       <c r="D13" s="2">
-        <v>887</v>
+        <v>1076</v>
       </c>
       <c r="E13" s="2">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="F13" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
@@ -876,16 +876,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C14" s="2">
-        <v>2944</v>
+        <v>3337</v>
       </c>
       <c r="D14" s="2">
-        <v>1457</v>
+        <v>1814</v>
       </c>
       <c r="E14" s="2">
-        <v>1446</v>
+        <v>1482</v>
       </c>
       <c r="F14" s="2">
         <v>41</v>
@@ -896,19 +896,19 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>3963</v>
+        <v>5041</v>
       </c>
       <c r="C15" s="2">
-        <v>41714</v>
+        <v>46755</v>
       </c>
       <c r="D15" s="2">
-        <v>21905</v>
+        <v>25784</v>
       </c>
       <c r="E15" s="2">
-        <v>19223</v>
+        <v>20329</v>
       </c>
       <c r="F15" s="2">
-        <v>586</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.7" x14ac:dyDescent="0.5">
@@ -922,10 +922,10 @@
         <v>2461</v>
       </c>
       <c r="D16" s="2">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="E16" s="2">
-        <v>2150</v>
+        <v>2171</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -956,19 +956,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>3963</v>
+        <v>5041</v>
       </c>
       <c r="C18" s="2">
-        <v>44609</v>
+        <v>49650</v>
       </c>
       <c r="D18" s="2">
-        <v>22260</v>
+        <v>26118</v>
       </c>
       <c r="E18" s="2">
-        <v>21763</v>
+        <v>22890</v>
       </c>
       <c r="F18" s="2">
-        <v>586</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
